--- a/MergeFiles/part_parameters.xlsx
+++ b/MergeFiles/part_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver\PycharmProjects\HPC_In_Situ\MergeFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39D6A15-D5E8-436A-B258-8CCCBC502FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F956BC7-8033-4203-809E-D9D6F530664C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
     <t>125</t>
   </si>
   <si>
-    <t>sample_number</t>
+    <t>Part Number</t>
   </si>
 </sst>
 </file>
@@ -810,7 +810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
